--- a/Code/Results/Cases/Case_9_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_17/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009911818894488</v>
+        <v>1.008900211588034</v>
       </c>
       <c r="D2">
-        <v>1.034079982384432</v>
+        <v>1.032425538548632</v>
       </c>
       <c r="E2">
-        <v>1.01477092670015</v>
+        <v>1.013977653360949</v>
       </c>
       <c r="F2">
-        <v>1.039249526341588</v>
+        <v>1.038103688442289</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.055269611795612</v>
+        <v>1.054412269091127</v>
       </c>
       <c r="J2">
-        <v>1.031800057496283</v>
+        <v>1.030817938967687</v>
       </c>
       <c r="K2">
-        <v>1.045084100219115</v>
+        <v>1.043450887128065</v>
       </c>
       <c r="L2">
-        <v>1.026028244175683</v>
+        <v>1.025245632182401</v>
       </c>
       <c r="M2">
-        <v>1.050187849456304</v>
+        <v>1.049056524489413</v>
       </c>
       <c r="N2">
-        <v>1.013879901802068</v>
+        <v>1.015013509107851</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.048292665440281</v>
+        <v>1.047397306585077</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.042948641927097</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041802556949786</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023441530709279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014567743891337</v>
+        <v>1.013242893088083</v>
       </c>
       <c r="D3">
-        <v>1.03727647764085</v>
+        <v>1.035297068262398</v>
       </c>
       <c r="E3">
-        <v>1.018532230615069</v>
+        <v>1.017454460616055</v>
       </c>
       <c r="F3">
-        <v>1.042381754374126</v>
+        <v>1.040995547901089</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.056457308503848</v>
+        <v>1.055429861981781</v>
       </c>
       <c r="J3">
-        <v>1.034669004615495</v>
+        <v>1.033378940173799</v>
       </c>
       <c r="K3">
-        <v>1.047453620771964</v>
+        <v>1.045497389861833</v>
       </c>
       <c r="L3">
-        <v>1.028933354585919</v>
+        <v>1.027868775145981</v>
       </c>
       <c r="M3">
-        <v>1.052499617771438</v>
+        <v>1.051129436122997</v>
       </c>
       <c r="N3">
-        <v>1.014900699085546</v>
+        <v>1.015724713460944</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.050122253307193</v>
+        <v>1.049037859837828</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.044621433321146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.043246669645831</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023897572905726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017520360191279</v>
+        <v>1.015999553169035</v>
       </c>
       <c r="D4">
-        <v>1.039306145340266</v>
+        <v>1.037122224396816</v>
       </c>
       <c r="E4">
-        <v>1.020923267466384</v>
+        <v>1.01966743547631</v>
       </c>
       <c r="F4">
-        <v>1.044373862115032</v>
+        <v>1.042836633082133</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.057197761438376</v>
+        <v>1.056063062602355</v>
       </c>
       <c r="J4">
-        <v>1.036486268773191</v>
+        <v>1.035002658318338</v>
       </c>
       <c r="K4">
-        <v>1.048952241277758</v>
+        <v>1.046792346431676</v>
       </c>
       <c r="L4">
-        <v>1.030775558949789</v>
+        <v>1.029534148167998</v>
       </c>
       <c r="M4">
-        <v>1.053964681224053</v>
+        <v>1.052444150069337</v>
       </c>
       <c r="N4">
-        <v>1.015546912630905</v>
+        <v>1.016175656938646</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.051281736689659</v>
+        <v>1.050078354914593</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.045681963233249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.044163274778589</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024183774764939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018753165354184</v>
+        <v>1.017150640348873</v>
       </c>
       <c r="D5">
-        <v>1.040155838785379</v>
+        <v>1.037886689910728</v>
       </c>
       <c r="E5">
-        <v>1.021923944725974</v>
+        <v>1.020593707642657</v>
       </c>
       <c r="F5">
-        <v>1.045207292965628</v>
+        <v>1.04360713138256</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.05750527338639</v>
+        <v>1.056325830151443</v>
       </c>
       <c r="J5">
-        <v>1.037246431826881</v>
+        <v>1.03568191721275</v>
       </c>
       <c r="K5">
-        <v>1.049579548004151</v>
+        <v>1.047334696227025</v>
       </c>
       <c r="L5">
-        <v>1.031546623862476</v>
+        <v>1.030231246460348</v>
       </c>
       <c r="M5">
-        <v>1.054577376716751</v>
+        <v>1.052994133471416</v>
       </c>
       <c r="N5">
-        <v>1.015818628694777</v>
+        <v>1.016365247032715</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.051766636822199</v>
+        <v>1.050513624090459</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.046132628031613</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044554582049365</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024303958865718</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018965924070304</v>
+        <v>1.017348710176175</v>
       </c>
       <c r="D6">
-        <v>1.040304555924106</v>
+        <v>1.038020480348583</v>
       </c>
       <c r="E6">
-        <v>1.022097945225275</v>
+        <v>1.020754166004133</v>
       </c>
       <c r="F6">
-        <v>1.04535161672907</v>
+        <v>1.043740373342981</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.057559943041758</v>
+        <v>1.056372660209251</v>
       </c>
       <c r="J6">
-        <v>1.037379952464283</v>
+        <v>1.035800897572188</v>
       </c>
       <c r="K6">
-        <v>1.04969090867137</v>
+        <v>1.047431177551736</v>
       </c>
       <c r="L6">
-        <v>1.031682066234661</v>
+        <v>1.030353227590852</v>
       </c>
       <c r="M6">
-        <v>1.054684637406153</v>
+        <v>1.053090351419812</v>
       </c>
       <c r="N6">
-        <v>1.015868176277061</v>
+        <v>1.016399598850443</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.051851525161321</v>
+        <v>1.050589773102609</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.046220040451071</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044632345903281</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024326388412578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.017554634853199</v>
+        <v>1.016041027326355</v>
       </c>
       <c r="D7">
-        <v>1.039335207486363</v>
+        <v>1.037155895789579</v>
       </c>
       <c r="E7">
-        <v>1.020954427771212</v>
+        <v>1.019705198080789</v>
       </c>
       <c r="F7">
-        <v>1.044398095391297</v>
+        <v>1.042864796071412</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.057211093687308</v>
+        <v>1.056078822929044</v>
       </c>
       <c r="J7">
-        <v>1.036513776364758</v>
+        <v>1.035037172118511</v>
       </c>
       <c r="K7">
-        <v>1.048978134438928</v>
+        <v>1.046822788375447</v>
       </c>
       <c r="L7">
-        <v>1.030803443148745</v>
+        <v>1.029568552858124</v>
       </c>
       <c r="M7">
-        <v>1.053985820009945</v>
+        <v>1.052469169323431</v>
       </c>
       <c r="N7">
-        <v>1.015561741063506</v>
+        <v>1.016215512712415</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.051298466375779</v>
+        <v>1.050098155717851</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.0457202238373</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.044206757947228</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024194787405517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011520642898728</v>
+        <v>1.010432402756958</v>
       </c>
       <c r="D8">
-        <v>1.035190545988389</v>
+        <v>1.03344617944254</v>
       </c>
       <c r="E8">
-        <v>1.016073858917624</v>
+        <v>1.015212208385987</v>
       </c>
       <c r="F8">
-        <v>1.040331810017059</v>
+        <v>1.039121305488298</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.055688386273087</v>
+        <v>1.054784058998611</v>
       </c>
       <c r="J8">
-        <v>1.032799853360287</v>
+        <v>1.031742251365596</v>
       </c>
       <c r="K8">
-        <v>1.045914038259496</v>
+        <v>1.044191386107912</v>
       </c>
       <c r="L8">
-        <v>1.027040414006267</v>
+        <v>1.026189989062493</v>
       </c>
       <c r="M8">
-        <v>1.050991829256461</v>
+        <v>1.049796199036474</v>
       </c>
       <c r="N8">
-        <v>1.014242344481304</v>
+        <v>1.015357091083356</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.048928954491451</v>
+        <v>1.04798270363163</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04355823219689</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.04235117851694</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02361501980522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.000374200170298</v>
+        <v>1.000060563319495</v>
       </c>
       <c r="D9">
-        <v>1.027549074654746</v>
+        <v>1.026597223651802</v>
       </c>
       <c r="E9">
-        <v>1.007100360695364</v>
+        <v>1.00694234840437</v>
       </c>
       <c r="F9">
-        <v>1.032867793099609</v>
+        <v>1.032245659302967</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.052769061573245</v>
+        <v>1.052278370287775</v>
       </c>
       <c r="J9">
-        <v>1.025913751381349</v>
+        <v>1.025611183120971</v>
       </c>
       <c r="K9">
-        <v>1.040210458319248</v>
+        <v>1.03927303029204</v>
       </c>
       <c r="L9">
-        <v>1.020079280398718</v>
+        <v>1.019923786134625</v>
       </c>
       <c r="M9">
-        <v>1.045449207023904</v>
+        <v>1.044836373187256</v>
       </c>
       <c r="N9">
-        <v>1.011784612256937</v>
+        <v>1.01366189810394</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.044542378120809</v>
+        <v>1.044057363767673</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.039522291662144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038870173249932</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022503276393262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9926733032479099</v>
+        <v>0.992948767667216</v>
       </c>
       <c r="D10">
-        <v>1.022307872088661</v>
+        <v>1.02193960478674</v>
       </c>
       <c r="E10">
-        <v>1.000955097848924</v>
+        <v>1.001330583960937</v>
       </c>
       <c r="F10">
-        <v>1.027815068760036</v>
+        <v>1.027630087069276</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.050710672618897</v>
+        <v>1.050523496800251</v>
       </c>
       <c r="J10">
-        <v>1.021180657815968</v>
+        <v>1.0214449672218</v>
       </c>
       <c r="K10">
-        <v>1.03628570305477</v>
+        <v>1.035923718331867</v>
       </c>
       <c r="L10">
-        <v>1.015307129095209</v>
+        <v>1.015675855790061</v>
       </c>
       <c r="M10">
-        <v>1.041699640443362</v>
+        <v>1.041517770324636</v>
       </c>
       <c r="N10">
-        <v>1.010120170496102</v>
+        <v>1.012642936162802</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.041626100712548</v>
+        <v>1.041482171824199</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.036764015002521</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03652046082926</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02175297160814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9899423103064043</v>
+        <v>0.9903922489948012</v>
       </c>
       <c r="D11">
-        <v>1.020586361683294</v>
+        <v>1.020410278464426</v>
       </c>
       <c r="E11">
-        <v>0.9989310440193809</v>
+        <v>0.9994411829830091</v>
       </c>
       <c r="F11">
-        <v>1.026559414471584</v>
+        <v>1.026516825478088</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.050126360544077</v>
+        <v>1.050039105775756</v>
       </c>
       <c r="J11">
-        <v>1.019739570472757</v>
+        <v>1.020170256818728</v>
       </c>
       <c r="K11">
-        <v>1.035130218672193</v>
+        <v>1.034957285142813</v>
       </c>
       <c r="L11">
-        <v>1.013873147478918</v>
+        <v>1.014373645474436</v>
       </c>
       <c r="M11">
-        <v>1.040997258135323</v>
+        <v>1.040955419375392</v>
       </c>
       <c r="N11">
-        <v>1.00982214219835</v>
+        <v>1.012649991986941</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.041504936368698</v>
+        <v>1.041471842419208</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.035979830143154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.035873158204835</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021634945606234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9891260687060459</v>
+        <v>0.9895933793070714</v>
       </c>
       <c r="D12">
-        <v>1.020116255280471</v>
+        <v>1.0199785539452</v>
       </c>
       <c r="E12">
-        <v>0.9983900686701934</v>
+        <v>0.998895593967719</v>
       </c>
       <c r="F12">
-        <v>1.026409601873543</v>
+        <v>1.026393675157619</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.050007150625218</v>
+        <v>1.049939874115711</v>
       </c>
       <c r="J12">
-        <v>1.019397870574103</v>
+        <v>1.01984479071834</v>
       </c>
       <c r="K12">
-        <v>1.034867947549487</v>
+        <v>1.034732751156705</v>
       </c>
       <c r="L12">
-        <v>1.013548177556724</v>
+        <v>1.014043983284831</v>
       </c>
       <c r="M12">
-        <v>1.041047742688939</v>
+        <v>1.041032101057608</v>
       </c>
       <c r="N12">
-        <v>1.00986038221252</v>
+        <v>1.01275326229896</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.041870214870181</v>
+        <v>1.041857846691392</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.035794396427483</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03571440907359</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021648882324306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9897601350224389</v>
+        <v>0.9901054046235347</v>
       </c>
       <c r="D13">
-        <v>1.020607736097221</v>
+        <v>1.020378893826012</v>
       </c>
       <c r="E13">
-        <v>0.9989809843758816</v>
+        <v>0.9993565852779203</v>
       </c>
       <c r="F13">
-        <v>1.027133902139183</v>
+        <v>1.027046167444902</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.05025934318733</v>
+        <v>1.050144767943862</v>
       </c>
       <c r="J13">
-        <v>1.019910044882799</v>
+        <v>1.02024032919624</v>
       </c>
       <c r="K13">
-        <v>1.035307749320124</v>
+        <v>1.035083051323859</v>
       </c>
       <c r="L13">
-        <v>1.01408363356166</v>
+        <v>1.014452047104707</v>
       </c>
       <c r="M13">
-        <v>1.041716737061734</v>
+        <v>1.041630564838608</v>
       </c>
       <c r="N13">
-        <v>1.010177021235611</v>
+        <v>1.012910692995193</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.0426750210857</v>
+        <v>1.042606899856234</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.036102860656854</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03595934574815</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021774832915769</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9908568809022832</v>
+        <v>0.9910575155305527</v>
       </c>
       <c r="D14">
-        <v>1.021384909383233</v>
+        <v>1.021036434338589</v>
       </c>
       <c r="E14">
-        <v>0.9999031570229368</v>
+        <v>1.000135713944853</v>
       </c>
       <c r="F14">
-        <v>1.028033768177854</v>
+        <v>1.027853554471159</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.050602392105677</v>
+        <v>1.050425697294206</v>
       </c>
       <c r="J14">
-        <v>1.020651239389785</v>
+        <v>1.02084329633223</v>
       </c>
       <c r="K14">
-        <v>1.03593095547208</v>
+        <v>1.035588710607961</v>
       </c>
       <c r="L14">
-        <v>1.014843871150638</v>
+        <v>1.015072036855088</v>
       </c>
       <c r="M14">
-        <v>1.04246199185135</v>
+        <v>1.042284945608228</v>
       </c>
       <c r="N14">
-        <v>1.010522525111732</v>
+        <v>1.013047365710601</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.043436973420937</v>
+        <v>1.043297032873494</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.036544909104162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.036318416070496</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02191421718059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9914518714435152</v>
+        <v>0.9915856561056394</v>
       </c>
       <c r="D15">
-        <v>1.021797084846158</v>
+        <v>1.021390134818357</v>
       </c>
       <c r="E15">
-        <v>1.000386603854916</v>
+        <v>1.00055606536772</v>
       </c>
       <c r="F15">
-        <v>1.02846256210622</v>
+        <v>1.028237515176474</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.050774496236858</v>
+        <v>1.050567422824376</v>
       </c>
       <c r="J15">
-        <v>1.02103136722698</v>
+        <v>1.021159484223493</v>
       </c>
       <c r="K15">
-        <v>1.036249611260649</v>
+        <v>1.035849880188807</v>
       </c>
       <c r="L15">
-        <v>1.015229345993343</v>
+        <v>1.015395633391497</v>
       </c>
       <c r="M15">
-        <v>1.042797901341813</v>
+        <v>1.042576778918263</v>
       </c>
       <c r="N15">
-        <v>1.01067464689205</v>
+        <v>1.01310076888279</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.043739914712575</v>
+        <v>1.043565140129519</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.036776068417427</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.036509497841687</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021978025580708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9946070079021767</v>
+        <v>0.9944417089158277</v>
       </c>
       <c r="D16">
-        <v>1.0239424492468</v>
+        <v>1.023254956757792</v>
       </c>
       <c r="E16">
-        <v>1.00288001993265</v>
+        <v>1.002782107773122</v>
       </c>
       <c r="F16">
-        <v>1.030505881222946</v>
+        <v>1.030067784874019</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.051626491726857</v>
+        <v>1.051273556902789</v>
       </c>
       <c r="J16">
-        <v>1.022958765427497</v>
+        <v>1.022800106250274</v>
       </c>
       <c r="K16">
-        <v>1.037857015728389</v>
+        <v>1.037181174027624</v>
       </c>
       <c r="L16">
-        <v>1.017160943226362</v>
+        <v>1.017064780803351</v>
       </c>
       <c r="M16">
-        <v>1.044310226762414</v>
+        <v>1.043879431087432</v>
       </c>
       <c r="N16">
-        <v>1.011325211947644</v>
+        <v>1.013321464563703</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.044896654518337</v>
+        <v>1.04455614496238</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.037915709268999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.037454211807217</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02226709100263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9964557004454651</v>
+        <v>0.9961471489323646</v>
       </c>
       <c r="D17">
-        <v>1.025182915451203</v>
+        <v>1.024349937186896</v>
       </c>
       <c r="E17">
-        <v>1.004314782725535</v>
+        <v>1.004095272592972</v>
       </c>
       <c r="F17">
-        <v>1.031598433937926</v>
+        <v>1.031051155045888</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.052097420136442</v>
+        <v>1.051668765119212</v>
       </c>
       <c r="J17">
-        <v>1.024050765530478</v>
+        <v>1.023754195938251</v>
       </c>
       <c r="K17">
-        <v>1.038763348850091</v>
+        <v>1.037944081665701</v>
       </c>
       <c r="L17">
-        <v>1.018247578777119</v>
+        <v>1.01803187585243</v>
       </c>
       <c r="M17">
-        <v>1.045074218562228</v>
+        <v>1.044535801543622</v>
       </c>
       <c r="N17">
-        <v>1.011644748896672</v>
+        <v>1.013449716297194</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.045371931448072</v>
+        <v>1.04494631356632</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.038559092413293</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.037996432137977</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022416928714782</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9973221549741073</v>
+        <v>0.9969844405646757</v>
       </c>
       <c r="D18">
-        <v>1.02572329314375</v>
+        <v>1.024843738119844</v>
       </c>
       <c r="E18">
-        <v>1.004936176229256</v>
+        <v>1.004703784141858</v>
       </c>
       <c r="F18">
-        <v>1.031917104490836</v>
+        <v>1.03133648488648</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.052265337437786</v>
+        <v>1.051812378844018</v>
       </c>
       <c r="J18">
-        <v>1.024486711188171</v>
+        <v>1.024161858174449</v>
       </c>
       <c r="K18">
-        <v>1.039112305215115</v>
+        <v>1.038246986239817</v>
       </c>
       <c r="L18">
-        <v>1.018670245366765</v>
+        <v>1.018441815119246</v>
       </c>
       <c r="M18">
-        <v>1.04520674715296</v>
+        <v>1.044635377647145</v>
       </c>
       <c r="N18">
-        <v>1.011685534394189</v>
+        <v>1.013455503555508</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.04523993261634</v>
+        <v>1.044788172302562</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.038794213994366</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038197855806589</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022443724880125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9972901344004756</v>
+        <v>0.9970221353618193</v>
       </c>
       <c r="D19">
-        <v>1.025622753985727</v>
+        <v>1.024785167132993</v>
       </c>
       <c r="E19">
-        <v>1.004815902436924</v>
+        <v>1.004664207482185</v>
       </c>
       <c r="F19">
-        <v>1.031521689517438</v>
+        <v>1.030975397627644</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.052157085277658</v>
+        <v>1.051725878442059</v>
       </c>
       <c r="J19">
-        <v>1.024320681072733</v>
+        <v>1.024062828595805</v>
       </c>
       <c r="K19">
-        <v>1.038951138417934</v>
+        <v>1.038127038765428</v>
       </c>
       <c r="L19">
-        <v>1.018487921560584</v>
+        <v>1.018338799376341</v>
       </c>
       <c r="M19">
-        <v>1.04475588118167</v>
+        <v>1.04421825433324</v>
       </c>
       <c r="N19">
-        <v>1.011482592008451</v>
+        <v>1.013335216420859</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.044559352182684</v>
+        <v>1.044134133142197</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.038686639048786</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038120049166283</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022358432354704</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9947234173641153</v>
+        <v>0.9948022294254922</v>
       </c>
       <c r="D20">
-        <v>1.023715038224914</v>
+        <v>1.023165843176346</v>
       </c>
       <c r="E20">
-        <v>1.002599650917705</v>
+        <v>1.002793201865307</v>
       </c>
       <c r="F20">
-        <v>1.029162979826182</v>
+        <v>1.028839991429142</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.051274798839026</v>
+        <v>1.050993520927592</v>
       </c>
       <c r="J20">
-        <v>1.022459268750345</v>
+        <v>1.022534997323672</v>
       </c>
       <c r="K20">
-        <v>1.037353322433362</v>
+        <v>1.03681322324806</v>
       </c>
       <c r="L20">
-        <v>1.016596942106555</v>
+        <v>1.01678711335888</v>
       </c>
       <c r="M20">
-        <v>1.042711710014509</v>
+        <v>1.042393996953581</v>
       </c>
       <c r="N20">
-        <v>1.010586386234006</v>
+        <v>1.012846939773467</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.04241653498092</v>
+        <v>1.0421650993753</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.037560845952635</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.037195449033837</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021957465161922</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9887811529119406</v>
+        <v>0.9895002245164503</v>
       </c>
       <c r="D21">
-        <v>1.019649528679129</v>
+        <v>1.019675784568772</v>
       </c>
       <c r="E21">
-        <v>0.9978424003710515</v>
+        <v>0.9986319600782479</v>
       </c>
       <c r="F21">
-        <v>1.025173973875135</v>
+        <v>1.025292654925383</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.049631655592917</v>
+        <v>1.049649541528485</v>
       </c>
       <c r="J21">
-        <v>1.018755535179047</v>
+        <v>1.019443592305958</v>
       </c>
       <c r="K21">
-        <v>1.034267958049353</v>
+        <v>1.034293741133159</v>
       </c>
       <c r="L21">
-        <v>1.012864764757571</v>
+        <v>1.01363929682929</v>
       </c>
       <c r="M21">
-        <v>1.039693613505236</v>
+        <v>1.03981018742289</v>
       </c>
       <c r="N21">
-        <v>1.009243435863794</v>
+        <v>1.012424150707399</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.039987222849448</v>
+        <v>1.040079483348997</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.035382624887018</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.035417666166532</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021391433014946</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9849794951273436</v>
+        <v>0.9861076552802065</v>
       </c>
       <c r="D22">
-        <v>1.017057964368866</v>
+        <v>1.017451505682095</v>
       </c>
       <c r="E22">
-        <v>0.9948117289963438</v>
+        <v>0.9959823836591225</v>
       </c>
       <c r="F22">
-        <v>1.022664661552638</v>
+        <v>1.02306554824744</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048574227026907</v>
+        <v>1.048782723161138</v>
       </c>
       <c r="J22">
-        <v>1.016393408839393</v>
+        <v>1.017469943450525</v>
       </c>
       <c r="K22">
-        <v>1.032298908045102</v>
+        <v>1.032684995097501</v>
       </c>
       <c r="L22">
-        <v>1.010486672004461</v>
+        <v>1.011633852682698</v>
       </c>
       <c r="M22">
-        <v>1.037800112549777</v>
+        <v>1.03819351417198</v>
       </c>
       <c r="N22">
-        <v>1.008392166751091</v>
+        <v>1.012151117138318</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.038488641168096</v>
+        <v>1.038799992979547</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.033976932631008</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.034265436865344</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021031262553905</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9869854461743852</v>
+        <v>0.9878807124324459</v>
       </c>
       <c r="D23">
-        <v>1.018420458267809</v>
+        <v>1.018607876228207</v>
       </c>
       <c r="E23">
-        <v>0.996405967058937</v>
+        <v>0.9973591174873947</v>
       </c>
       <c r="F23">
-        <v>1.023987169890591</v>
+        <v>1.024229023922779</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04912968059988</v>
+        <v>1.049231195711955</v>
       </c>
       <c r="J23">
-        <v>1.017633783905208</v>
+        <v>1.018489337021082</v>
       </c>
       <c r="K23">
-        <v>1.033331053701492</v>
+        <v>1.033515014749656</v>
       </c>
       <c r="L23">
-        <v>1.011734489219438</v>
+        <v>1.012669043725783</v>
       </c>
       <c r="M23">
-        <v>1.038795789525625</v>
+        <v>1.039033245759082</v>
       </c>
       <c r="N23">
-        <v>1.008833408923843</v>
+        <v>1.012242083311383</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.039276654509768</v>
+        <v>1.039464585492637</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.03469706798732</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034841716457342</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021211547218542</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9947250860369063</v>
+        <v>0.9948173213759517</v>
       </c>
       <c r="D24">
-        <v>1.023695797403352</v>
+        <v>1.023154195818757</v>
       </c>
       <c r="E24">
-        <v>1.002581434246967</v>
+        <v>1.002790453212636</v>
       </c>
       <c r="F24">
-        <v>1.029110289976493</v>
+        <v>1.028793818417188</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.051253587460681</v>
+        <v>1.05097626376377</v>
       </c>
       <c r="J24">
-        <v>1.022427712455104</v>
+        <v>1.02251634428786</v>
       </c>
       <c r="K24">
-        <v>1.037319185767337</v>
+        <v>1.036786543142249</v>
       </c>
       <c r="L24">
-        <v>1.016563368157582</v>
+        <v>1.016768741936569</v>
       </c>
       <c r="M24">
-        <v>1.042644780045799</v>
+        <v>1.042333471412239</v>
       </c>
       <c r="N24">
-        <v>1.010547834752216</v>
+        <v>1.012822106455234</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.042322871178944</v>
+        <v>1.042076491847297</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.037509366652144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.037146571718012</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021938112759097</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.003346465730421</v>
+        <v>1.002805901489261</v>
       </c>
       <c r="D25">
-        <v>1.029591596131252</v>
+        <v>1.028415707052942</v>
       </c>
       <c r="E25">
-        <v>1.009493375896834</v>
+        <v>1.009127682067747</v>
       </c>
       <c r="F25">
-        <v>1.034853232706165</v>
+        <v>1.034063321549183</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.053565665953213</v>
+        <v>1.052958207008164</v>
       </c>
       <c r="J25">
-        <v>1.02776173042862</v>
+        <v>1.027239203438602</v>
       </c>
       <c r="K25">
-        <v>1.04174727369736</v>
+        <v>1.040588357834225</v>
       </c>
       <c r="L25">
-        <v>1.021946085512209</v>
+        <v>1.021585935924633</v>
       </c>
       <c r="M25">
-        <v>1.046933559583984</v>
+        <v>1.046154898665852</v>
       </c>
       <c r="N25">
-        <v>1.012453439994195</v>
+        <v>1.014085206933093</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.045717136167097</v>
+        <v>1.045100882417805</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.040637373966174</v>
+        <v>1.0398314521528</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022805842076921</v>
       </c>
     </row>
   </sheetData>
